--- a/House_Price/df_train_columns.xlsx
+++ b/House_Price/df_train_columns.xlsx
@@ -970,7 +970,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
